--- a/DateBase/orders/Dang Nguyen_2025-4-24.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-24.xlsx
@@ -853,6 +853,9 @@
       <c r="G2" t="str">
         <v>0101022151055101013482151010111010105105354551510964101010101050</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
